--- a/tabel-a4-more.xlsx
+++ b/tabel-a4-more.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah sem 5\transfer kalor and mass\tugas-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC9BD9D0-33AD-4C47-ADB4-9876F8F671B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC2EF66-5451-4971-A9F7-B34DB4ABFE23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B523CB8C-84B7-421F-B8CE-D335518856C7}"/>
+    <workbookView xWindow="9924" yWindow="0" windowWidth="11532" windowHeight="10848" xr2:uid="{B523CB8C-84B7-421F-B8CE-D335518856C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,19 +61,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +92,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,15 +407,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86928F69-8589-4152-94C6-3F3A3249FC25}">
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -458,71 +454,23 @@
       <c r="C2">
         <v>1.032</v>
       </c>
+      <c r="D2">
+        <v>7.1099999999999988E-6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9.3400000000000004E-4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5399999999999998E-6</v>
+      </c>
       <c r="H2">
         <v>0.78600000000000003</v>
       </c>
-      <c r="J2" s="1">
-        <v>1.032</v>
-      </c>
-      <c r="K2">
-        <v>1.012</v>
-      </c>
-      <c r="L2">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="M2">
-        <v>1.006</v>
-      </c>
-      <c r="N2">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="O2">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="P2">
-        <v>1.014</v>
-      </c>
-      <c r="Q2">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="R2">
-        <v>1.03</v>
-      </c>
-      <c r="S2">
-        <v>1.04</v>
-      </c>
-      <c r="T2">
-        <v>1.0509999999999999</v>
-      </c>
-      <c r="U2">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="V2">
-        <v>1.075</v>
-      </c>
-      <c r="W2">
-        <v>1.087</v>
-      </c>
-      <c r="X2">
-        <v>1.099</v>
-      </c>
-      <c r="Y2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="Z2">
-        <v>1.121</v>
-      </c>
-      <c r="AA2">
-        <v>1.131</v>
-      </c>
-      <c r="AB2">
-        <v>1.141</v>
-      </c>
-      <c r="AC2">
-        <v>1.159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>150</v>
       </c>
@@ -530,17 +478,26 @@
         <v>2.3363999999999998</v>
       </c>
       <c r="C3">
-        <f>L4</f>
         <v>1.012</v>
+      </c>
+      <c r="D3">
+        <v>1.0339999999999999E-5</v>
+      </c>
+      <c r="E3">
+        <v>4.4259999999999996E-6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.3800000000000002E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.84E-6</v>
       </c>
       <c r="H3">
         <v>0.75800000000000001</v>
       </c>
-      <c r="L3">
-        <v>1.032</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>200</v>
       </c>
@@ -548,399 +505,913 @@
         <v>1.7458</v>
       </c>
       <c r="C4">
-        <f>L5</f>
         <v>1.0069999999999999</v>
+      </c>
+      <c r="D4">
+        <v>1.325E-5</v>
+      </c>
+      <c r="E4">
+        <v>7.5899999999999993E-6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.8100000000000002E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.03E-5</v>
       </c>
       <c r="H4">
         <v>0.73699999999999999</v>
       </c>
-      <c r="K4">
-        <f t="array" ref="K4:K28">TRANSPOSE(K2:AC2)</f>
-        <v>1.012</v>
-      </c>
-      <c r="L4">
-        <f>K4</f>
-        <v>1.012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>250</v>
       </c>
+      <c r="B5">
+        <v>1.3947000000000001</v>
+      </c>
       <c r="C5">
-        <f>L6</f>
         <v>1.006</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.596E-5</v>
+      </c>
+      <c r="E5">
+        <v>1.1439999999999999E-5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.2300000000000002E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.59E-5</v>
       </c>
       <c r="H5">
         <v>0.72</v>
       </c>
-      <c r="K5">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ref="L5:L22" si="0">K5</f>
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>300</v>
       </c>
+      <c r="B6">
+        <v>1.1614</v>
+      </c>
       <c r="C6">
-        <f>L7</f>
         <v>1.0069999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.8460000000000003E-5</v>
+      </c>
+      <c r="E6">
+        <v>1.5889999999999999E-5</v>
+      </c>
+      <c r="F6">
+        <v>2.6300000000000004E-3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.2499999999999998E-5</v>
       </c>
       <c r="H6">
         <v>0.70699999999999996</v>
       </c>
-      <c r="K6">
-        <v>1.006</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>1.006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>350</v>
       </c>
+      <c r="B7">
+        <v>0.995</v>
+      </c>
       <c r="C7">
-        <f>L8</f>
         <v>1.0089999999999999</v>
+      </c>
+      <c r="D7">
+        <v>2.0820000000000001E-5</v>
+      </c>
+      <c r="E7">
+        <v>2.092E-5</v>
+      </c>
+      <c r="F7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.9899999999999998E-5</v>
       </c>
       <c r="H7">
         <v>0.7</v>
       </c>
-      <c r="K7">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>1.0069999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>400</v>
       </c>
+      <c r="B8">
+        <v>0.87109999999999999</v>
+      </c>
       <c r="C8">
-        <f>L9</f>
         <v>1.014</v>
+      </c>
+      <c r="D8">
+        <v>2.3010000000000002E-5</v>
+      </c>
+      <c r="E8">
+        <v>2.641E-5</v>
+      </c>
+      <c r="F8">
+        <v>3.3799999999999998E-3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.8299999999999996E-5</v>
       </c>
       <c r="H8">
         <v>0.69</v>
       </c>
-      <c r="K8">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>450</v>
       </c>
+      <c r="B9">
+        <v>0.77400000000000002</v>
+      </c>
       <c r="C9">
-        <f>L10</f>
         <v>1.0209999999999999</v>
+      </c>
+      <c r="D9">
+        <v>2.5070000000000002E-5</v>
+      </c>
+      <c r="E9">
+        <v>3.239E-5</v>
+      </c>
+      <c r="F9">
+        <v>3.7299999999999998E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.7200000000000002E-5</v>
       </c>
       <c r="H9">
         <v>0.68600000000000005</v>
       </c>
-      <c r="K9">
-        <v>1.014</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>1.014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
+      <c r="B10">
+        <v>0.69640000000000002</v>
+      </c>
       <c r="C10">
-        <f>L11</f>
         <v>1.03</v>
+      </c>
+      <c r="D10">
+        <v>2.7010000000000001E-5</v>
+      </c>
+      <c r="E10">
+        <v>3.879E-5</v>
+      </c>
+      <c r="F10">
+        <v>4.0700000000000007E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.6700000000000003E-5</v>
       </c>
       <c r="H10">
         <v>0.68400000000000005</v>
       </c>
-      <c r="K10">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>1.0209999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>550</v>
       </c>
+      <c r="B11">
+        <v>0.63290000000000002</v>
+      </c>
       <c r="C11">
-        <f>L12</f>
         <v>1.04</v>
+      </c>
+      <c r="D11">
+        <v>2.8839999999999998E-5</v>
+      </c>
+      <c r="E11">
+        <v>4.5569999999999999E-5</v>
+      </c>
+      <c r="F11">
+        <v>4.3899999999999998E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6.6699999999999995E-5</v>
       </c>
       <c r="H11">
         <v>0.68300000000000005</v>
       </c>
-      <c r="K11">
-        <v>1.03</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>600</v>
       </c>
+      <c r="B12">
+        <v>0.58040000000000003</v>
+      </c>
       <c r="C12">
-        <f>L13</f>
         <v>1.0509999999999999</v>
+      </c>
+      <c r="D12">
+        <v>3.0580000000000002E-5</v>
+      </c>
+      <c r="E12">
+        <v>5.2689999999999999E-5</v>
+      </c>
+      <c r="F12">
+        <v>4.6899999999999997E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7.6899999999999999E-5</v>
       </c>
       <c r="H12">
         <v>0.68500000000000005</v>
       </c>
-      <c r="K12">
-        <v>1.04</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>650</v>
       </c>
+      <c r="B13">
+        <v>0.53559999999999997</v>
+      </c>
       <c r="C13">
-        <f>L14</f>
         <v>1.0629999999999999</v>
+      </c>
+      <c r="D13">
+        <v>3.2250000000000005E-5</v>
+      </c>
+      <c r="E13">
+        <v>6.0210000000000001E-5</v>
+      </c>
+      <c r="F13">
+        <v>4.9700000000000005E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8.7299999999999994E-5</v>
       </c>
       <c r="H13">
         <v>0.69</v>
       </c>
-      <c r="K13">
-        <v>1.0509999999999999</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>1.0509999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>700</v>
       </c>
+      <c r="B14">
+        <v>0.4975</v>
+      </c>
       <c r="C14">
-        <f>L15</f>
         <v>1.075</v>
+      </c>
+      <c r="D14">
+        <v>3.3880000000000001E-5</v>
+      </c>
+      <c r="E14">
+        <v>6.8099999999999988E-5</v>
+      </c>
+      <c r="F14">
+        <v>5.2399999999999999E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9.7999999999999997E-5</v>
       </c>
       <c r="H14">
         <v>0.69499999999999995</v>
       </c>
-      <c r="K14">
-        <v>1.0629999999999999</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>1.0629999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>750</v>
       </c>
+      <c r="B15">
+        <v>0.46429999999999999</v>
+      </c>
       <c r="C15">
-        <f>L16</f>
         <v>1.087</v>
+      </c>
+      <c r="D15">
+        <v>3.5460000000000003E-5</v>
+      </c>
+      <c r="E15">
+        <v>7.6370000000000002E-5</v>
+      </c>
+      <c r="F15">
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.0899999999999999E-4</v>
       </c>
       <c r="H15">
         <v>0.70199999999999996</v>
       </c>
-      <c r="K15">
-        <v>1.075</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>1.075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>800</v>
       </c>
+      <c r="B16">
+        <v>0.43540000000000001</v>
+      </c>
       <c r="C16">
-        <f>L17</f>
         <v>1.099</v>
+      </c>
+      <c r="D16">
+        <v>3.6980000000000002E-5</v>
+      </c>
+      <c r="E16">
+        <v>8.4389999999999997E-5</v>
+      </c>
+      <c r="F16">
+        <v>5.7299999999999999E-3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.1999999999999999E-4</v>
       </c>
       <c r="H16">
         <v>0.70899999999999996</v>
       </c>
-      <c r="K16">
-        <v>1.087</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>1.087</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>850</v>
       </c>
+      <c r="B17">
+        <v>0.40970000000000001</v>
+      </c>
       <c r="C17">
-        <f>L18</f>
         <v>1.1100000000000001</v>
+      </c>
+      <c r="D17">
+        <v>3.8430000000000003E-5</v>
+      </c>
+      <c r="E17">
+        <v>9.379999999999999E-5</v>
+      </c>
+      <c r="F17">
+        <v>5.96E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.3099999999999999E-4</v>
       </c>
       <c r="H17">
         <v>0.71599999999999997</v>
       </c>
-      <c r="K17">
-        <v>1.099</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>1.099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>900</v>
       </c>
+      <c r="B18">
+        <v>0.38679999999999998</v>
+      </c>
       <c r="C18">
-        <f>L19</f>
         <v>1.121</v>
+      </c>
+      <c r="D18">
+        <v>3.981E-5</v>
+      </c>
+      <c r="E18">
+        <v>1.0290000000000001E-4</v>
+      </c>
+      <c r="F18">
+        <v>6.2000000000000006E-3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.4300000000000001E-4</v>
       </c>
       <c r="H18">
         <v>0.72</v>
       </c>
-      <c r="K18">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>950</v>
       </c>
+      <c r="B19">
+        <v>0.36659999999999998</v>
+      </c>
       <c r="C19">
-        <f>L20</f>
         <v>1.131</v>
+      </c>
+      <c r="D19">
+        <v>4.1130000000000001E-5</v>
+      </c>
+      <c r="E19">
+        <v>1.122E-4</v>
+      </c>
+      <c r="F19">
+        <v>6.43E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.55E-4</v>
       </c>
       <c r="H19">
         <v>0.72299999999999998</v>
       </c>
-      <c r="K19">
-        <v>1.121</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>1.121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1000</v>
       </c>
+      <c r="B20">
+        <v>0.34820000000000001</v>
+      </c>
       <c r="C20">
-        <f>L21</f>
         <v>1.141</v>
+      </c>
+      <c r="D20">
+        <v>4.244E-5</v>
+      </c>
+      <c r="E20">
+        <v>1.219E-4</v>
+      </c>
+      <c r="F20">
+        <v>6.6700000000000006E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.6799999999999999E-4</v>
       </c>
       <c r="H20">
         <v>0.72599999999999998</v>
       </c>
-      <c r="K20">
-        <v>1.131</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>1.131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1100</v>
       </c>
+      <c r="B21">
+        <v>0.31659999999999999</v>
+      </c>
       <c r="C21">
-        <f>L22</f>
         <v>1.159</v>
+      </c>
+      <c r="D21">
+        <v>4.49E-5</v>
+      </c>
+      <c r="E21">
+        <v>1.418E-4</v>
+      </c>
+      <c r="F21">
+        <v>7.1500000000000001E-3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.95E-4</v>
       </c>
       <c r="H21">
         <v>0.72799999999999998</v>
       </c>
-      <c r="K21">
-        <v>1.141</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>1.141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K22">
-        <v>1.159</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>1.159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K23" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K24" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K25" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K27" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K28" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D141" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22EA995-25BF-46FA-9110-1541322F4840}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>